--- a/savings.xlsx
+++ b/savings.xlsx
@@ -1,32 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645CA035-AF6E-48ED-BB5E-31FD6450E572}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBFB090-8613-4669-A3D9-B70698FB7F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2952" yWindow="2508" windowWidth="17280" windowHeight="9420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Брекетты" sheetId="1" r:id="rId1"/>
     <sheet name="Мкбук" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>Январь</t>
   </si>
@@ -119,6 +129,27 @@
   </si>
   <si>
     <t>https://thecode.media/excel-4/</t>
+  </si>
+  <si>
+    <t>покупка</t>
+  </si>
+  <si>
+    <t>продажа</t>
+  </si>
+  <si>
+    <t>Цена</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Доход%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.10.2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.10.2012</t>
   </si>
 </sst>
 </file>
@@ -163,10 +194,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -526,7 +561,7 @@
         <v>2500</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F12" si="0">B4-(C4+D4+E4)</f>
+        <f t="shared" ref="F4:F10" si="0">B4-(C4+D4+E4)</f>
         <v>5000</v>
       </c>
     </row>
@@ -556,15 +591,15 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <f t="shared" ref="B6:B12" si="1">B5</f>
+        <f t="shared" ref="B6:B10" si="1">B5</f>
         <v>10000</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:C12" si="2">C5</f>
+        <f t="shared" ref="C6:C10" si="2">C5</f>
         <v>2500</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D12" si="3">D5</f>
+        <f t="shared" ref="D6:D10" si="3">D5</f>
         <v>2500</v>
       </c>
       <c r="F6">
@@ -701,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E2258F-DB2B-4DA8-9219-906F0C04B404}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1204,4 +1239,70 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAB66D2-A5A9-46C2-A0E1-387971876A72}">
+  <dimension ref="A2:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3">
+        <v>175</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>248</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="4">
+        <f>((B4-B3)/B3)/C8*365</f>
+        <v>0.41600312256049959</v>
+      </c>
+      <c r="C8">
+        <f>_xlfn.DAYS( C4,C3)</f>
+        <v>366</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>